--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.359788939687</v>
+        <v>33.47808166666666</v>
       </c>
       <c r="H2">
-        <v>25.359788939687</v>
+        <v>100.434245</v>
       </c>
       <c r="I2">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="J2">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N2">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q2">
-        <v>672.9045838354294</v>
+        <v>961.6302206608219</v>
       </c>
       <c r="R2">
-        <v>672.9045838354294</v>
+        <v>8654.671985947398</v>
       </c>
       <c r="S2">
-        <v>0.1761020837170741</v>
+        <v>0.2066060303655075</v>
       </c>
       <c r="T2">
-        <v>0.1761020837170741</v>
+        <v>0.2066060303655076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.359788939687</v>
+        <v>33.47808166666666</v>
       </c>
       <c r="H3">
-        <v>25.359788939687</v>
+        <v>100.434245</v>
       </c>
       <c r="I3">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="J3">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N3">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q3">
-        <v>763.0173488635813</v>
+        <v>1023.42034773409</v>
       </c>
       <c r="R3">
-        <v>763.0173488635813</v>
+        <v>9210.783129606814</v>
       </c>
       <c r="S3">
-        <v>0.1996849899301869</v>
+        <v>0.219881624867535</v>
       </c>
       <c r="T3">
-        <v>0.1996849899301869</v>
+        <v>0.219881624867535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.359788939687</v>
+        <v>33.47808166666666</v>
       </c>
       <c r="H4">
-        <v>25.359788939687</v>
+        <v>100.434245</v>
       </c>
       <c r="I4">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="J4">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N4">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q4">
-        <v>182.5482290234551</v>
+        <v>286.5567113244466</v>
       </c>
       <c r="R4">
-        <v>182.5482290234551</v>
+        <v>2579.01040192002</v>
       </c>
       <c r="S4">
-        <v>0.04777367294284067</v>
+        <v>0.06156664311220794</v>
       </c>
       <c r="T4">
-        <v>0.04777367294284067</v>
+        <v>0.06156664311220794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.1119402152858</v>
+        <v>23.24776266666667</v>
       </c>
       <c r="H5">
-        <v>23.1119402152858</v>
+        <v>69.74328800000001</v>
       </c>
       <c r="I5">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="J5">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N5">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q5">
-        <v>613.2594616297373</v>
+        <v>667.7727644495289</v>
       </c>
       <c r="R5">
-        <v>613.2594616297373</v>
+        <v>6009.95488004576</v>
       </c>
       <c r="S5">
-        <v>0.160492693387002</v>
+        <v>0.1434708239039218</v>
       </c>
       <c r="T5">
-        <v>0.160492693387002</v>
+        <v>0.1434708239039218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.1119402152858</v>
+        <v>23.24776266666667</v>
       </c>
       <c r="H6">
-        <v>23.1119402152858</v>
+        <v>69.74328800000001</v>
       </c>
       <c r="I6">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="J6">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N6">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q6">
-        <v>695.3847838442861</v>
+        <v>710.6809042780063</v>
       </c>
       <c r="R6">
-        <v>695.3847838442861</v>
+        <v>6396.128138502057</v>
       </c>
       <c r="S6">
-        <v>0.1819852507500162</v>
+        <v>0.1526896278161344</v>
       </c>
       <c r="T6">
-        <v>0.1819852507500162</v>
+        <v>0.1526896278161344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.1119402152858</v>
+        <v>23.24776266666667</v>
       </c>
       <c r="H7">
-        <v>23.1119402152858</v>
+        <v>69.74328800000001</v>
       </c>
       <c r="I7">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="J7">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N7">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q7">
-        <v>166.3674632951605</v>
+        <v>198.9899684737387</v>
       </c>
       <c r="R7">
-        <v>166.3674632951605</v>
+        <v>1790.909716263648</v>
       </c>
       <c r="S7">
-        <v>0.04353909551635164</v>
+        <v>0.04275294867570256</v>
       </c>
       <c r="T7">
-        <v>0.04353909551635164</v>
+        <v>0.04275294867570255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.4011205929024</v>
+        <v>11.86914966666667</v>
       </c>
       <c r="H8">
-        <v>11.4011205929024</v>
+        <v>35.607449</v>
       </c>
       <c r="I8">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="J8">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N8">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q8">
-        <v>302.5209052831818</v>
+        <v>340.9315123446088</v>
       </c>
       <c r="R8">
-        <v>302.5209052831818</v>
+        <v>3068.383611101479</v>
       </c>
       <c r="S8">
-        <v>0.07917104901364909</v>
+        <v>0.07324905652780346</v>
       </c>
       <c r="T8">
-        <v>0.07917104901364909</v>
+        <v>0.07324905652780345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.4011205929024</v>
+        <v>11.86914966666667</v>
       </c>
       <c r="H9">
-        <v>11.4011205929024</v>
+        <v>35.607449</v>
       </c>
       <c r="I9">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="J9">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N9">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q9">
-        <v>343.033328453945</v>
+        <v>362.8382713237291</v>
       </c>
       <c r="R9">
-        <v>343.033328453945</v>
+        <v>3265.544441913562</v>
       </c>
       <c r="S9">
-        <v>0.08977332801156432</v>
+        <v>0.07795571862473687</v>
       </c>
       <c r="T9">
-        <v>0.08977332801156432</v>
+        <v>0.07795571862473685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.4011205929024</v>
+        <v>11.86914966666667</v>
       </c>
       <c r="H10">
-        <v>11.4011205929024</v>
+        <v>35.607449</v>
       </c>
       <c r="I10">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="J10">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N10">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q10">
-        <v>82.06907313254894</v>
+        <v>101.5943663846226</v>
       </c>
       <c r="R10">
-        <v>82.06907313254894</v>
+        <v>914.3492974616039</v>
       </c>
       <c r="S10">
-        <v>0.02147783673131498</v>
+        <v>0.0218275261064505</v>
       </c>
       <c r="T10">
-        <v>0.02147783673131498</v>
+        <v>0.0218275261064505</v>
       </c>
     </row>
   </sheetData>
